--- a/results/ugrad-009-01/ugrad-009-01-freq-design-20.xlsx
+++ b/results/ugrad-009-01/ugrad-009-01-freq-design-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desti\Documents\GitHub\P4P\results\ugrad-009-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C667A9-2714-45F9-885E-E8CABAF3ABD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E49587-7DB1-4EBA-9752-6750C5A512DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9165" yWindow="2400" windowWidth="9330" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ugrad-009-01-freq-20" sheetId="1" r:id="rId1"/>
@@ -1362,7 +1362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+    <sheetView topLeftCell="A145" workbookViewId="0">
       <selection activeCell="F168" sqref="F168"/>
     </sheetView>
   </sheetViews>
@@ -1374,7 +1374,7 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>raw!A1</f>
-        <v>main</v>
+        <v>arg</v>
       </c>
       <c r="B1">
         <f>raw!B1</f>
@@ -1391,7 +1391,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>raw!A2</f>
-        <v>int</v>
+        <v>print</v>
       </c>
       <c r="B2">
         <f>raw!B2</f>
@@ -1405,7 +1405,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>raw!A3</f>
-        <v>util</v>
+        <v>get</v>
       </c>
       <c r="B3">
         <f>raw!B3</f>
@@ -1419,7 +1419,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>raw!A4</f>
-        <v>line</v>
+        <v>except</v>
       </c>
       <c r="B4">
         <f>raw!B4</f>
@@ -1433,7 +1433,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>raw!A5</f>
-        <v>system</v>
+        <v>main</v>
       </c>
       <c r="B5">
         <f>raw!B5</f>
@@ -1447,7 +1447,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>raw!A6</f>
-        <v>split</v>
+        <v>util</v>
       </c>
       <c r="B6">
         <f>raw!B6</f>
@@ -1461,7 +1461,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>raw!A7</f>
-        <v>except</v>
+        <v>split</v>
       </c>
       <c r="B7">
         <f>raw!B7</f>
@@ -1475,7 +1475,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>raw!A8</f>
-        <v>string</v>
+        <v>system</v>
       </c>
       <c r="B8">
         <f>raw!B8</f>
@@ -1489,7 +1489,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>raw!A9</f>
-        <v>arg</v>
+        <v>java</v>
       </c>
       <c r="B9">
         <f>raw!B9</f>
@@ -1503,7 +1503,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>raw!A10</f>
-        <v>integ</v>
+        <v>io</v>
       </c>
       <c r="B10">
         <f>raw!B10</f>
@@ -1517,7 +1517,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>raw!A11</f>
-        <v>java</v>
+        <v>pars</v>
       </c>
       <c r="B11">
         <f>raw!B11</f>
@@ -1531,7 +1531,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>raw!A12</f>
-        <v>get</v>
+        <v>int</v>
       </c>
       <c r="B12">
         <f>raw!B12</f>
@@ -1559,7 +1559,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>raw!A14</f>
-        <v>io</v>
+        <v>string</v>
       </c>
       <c r="B14">
         <f>raw!B14</f>
@@ -1573,7 +1573,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>raw!A15</f>
-        <v>pars</v>
+        <v>line</v>
       </c>
       <c r="B15">
         <f>raw!B15</f>
@@ -1587,7 +1587,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>raw!A16</f>
-        <v>file</v>
+        <v>integ</v>
       </c>
       <c r="B16">
         <f>raw!B16</f>
@@ -1601,7 +1601,7 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>raw!A17</f>
-        <v>print</v>
+        <v>file</v>
       </c>
       <c r="B17">
         <f>raw!B17</f>
@@ -1629,7 +1629,7 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>raw!A19</f>
-        <v>end</v>
+        <v>add</v>
       </c>
       <c r="B19">
         <f>raw!B19</f>
@@ -1643,7 +1643,7 @@
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>raw!A20</f>
-        <v>add</v>
+        <v>doubl</v>
       </c>
       <c r="B20">
         <f>raw!B20</f>
@@ -1657,7 +1657,7 @@
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>raw!A21</f>
-        <v>doubl</v>
+        <v>println</v>
       </c>
       <c r="B21">
         <f>raw!B21</f>
@@ -1671,7 +1671,7 @@
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>raw!A22</f>
-        <v>println</v>
+        <v>end</v>
       </c>
       <c r="B22">
         <f>raw!B22</f>
@@ -1685,7 +1685,7 @@
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>raw!A23</f>
-        <v>equal</v>
+        <v>list</v>
       </c>
       <c r="B23">
         <f>raw!B23</f>
@@ -1699,7 +1699,7 @@
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>raw!A24</f>
-        <v>list</v>
+        <v>equal</v>
       </c>
       <c r="B24">
         <f>raw!B24</f>
@@ -1741,7 +1741,7 @@
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>raw!A27</f>
-        <v>sort</v>
+        <v>round</v>
       </c>
       <c r="B27">
         <f>raw!B27</f>
@@ -1755,7 +1755,7 @@
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>raw!A28</f>
-        <v>round</v>
+        <v>close</v>
       </c>
       <c r="B28">
         <f>raw!B28</f>
@@ -1769,7 +1769,7 @@
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>raw!A29</f>
-        <v>reader</v>
+        <v>sort</v>
       </c>
       <c r="B29">
         <f>raw!B29</f>
@@ -1783,21 +1783,21 @@
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>raw!A30</f>
-        <v>close</v>
+        <v>array</v>
       </c>
       <c r="B30">
         <f>raw!B30</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>raw!A31</f>
-        <v>set</v>
+        <v>process</v>
       </c>
       <c r="B31">
         <f>raw!B31</f>
@@ -1811,7 +1811,7 @@
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>raw!A32</f>
-        <v>array</v>
+        <v>reader</v>
       </c>
       <c r="B32">
         <f>raw!B32</f>
@@ -1839,7 +1839,7 @@
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>raw!A34</f>
-        <v>process</v>
+        <v>set</v>
       </c>
       <c r="B34">
         <f>raw!B34</f>
@@ -1881,7 +1881,7 @@
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>raw!A37</f>
-        <v>read</v>
+        <v>calcul</v>
       </c>
       <c r="B37">
         <f>raw!B37</f>
@@ -1895,7 +1895,7 @@
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>raw!A38</f>
-        <v>calcul</v>
+        <v>read</v>
       </c>
       <c r="B38">
         <f>raw!B38</f>
@@ -1909,7 +1909,7 @@
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>raw!A39</f>
-        <v>math</v>
+        <v>found</v>
       </c>
       <c r="B39">
         <f>raw!B39</f>
@@ -1937,7 +1937,7 @@
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>raw!A41</f>
-        <v>found</v>
+        <v>math</v>
       </c>
       <c r="B41">
         <f>raw!B41</f>
@@ -1951,7 +1951,7 @@
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>raw!A42</f>
-        <v>replac</v>
+        <v>collect</v>
       </c>
       <c r="B42">
         <f>raw!B42</f>
@@ -1965,7 +1965,7 @@
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>raw!A43</f>
-        <v>collect</v>
+        <v>replac</v>
       </c>
       <c r="B43">
         <f>raw!B43</f>
@@ -2007,7 +2007,7 @@
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>raw!A46</f>
-        <v>size</v>
+        <v>next</v>
       </c>
       <c r="B46">
         <f>raw!B46</f>
@@ -2021,7 +2021,7 @@
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>raw!A47</f>
-        <v>type</v>
+        <v>size</v>
       </c>
       <c r="B47">
         <f>raw!B47</f>
@@ -2035,7 +2035,7 @@
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>raw!A48</f>
-        <v>next</v>
+        <v>type</v>
       </c>
       <c r="B48">
         <f>raw!B48</f>
@@ -2063,7 +2063,7 @@
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>raw!A50</f>
-        <v>stack</v>
+        <v>char</v>
       </c>
       <c r="B50">
         <f>raw!B50</f>
@@ -2077,7 +2077,7 @@
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>raw!A51</f>
-        <v>char</v>
+        <v>current</v>
       </c>
       <c r="B51">
         <f>raw!B51</f>
@@ -2091,7 +2091,7 @@
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>raw!A52</f>
-        <v>current</v>
+        <v>stack</v>
       </c>
       <c r="B52">
         <f>raw!B52</f>
@@ -2105,7 +2105,7 @@
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>raw!A53</f>
-        <v>trace</v>
+        <v>substr</v>
       </c>
       <c r="B53">
         <f>raw!B53</f>
@@ -2119,7 +2119,7 @@
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>raw!A54</f>
-        <v>substr</v>
+        <v>new</v>
       </c>
       <c r="B54">
         <f>raw!B54</f>
@@ -2147,21 +2147,21 @@
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f>raw!A56</f>
-        <v>new</v>
+        <v>check</v>
       </c>
       <c r="B56">
         <f>raw!B56</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" s="1">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f>raw!A57</f>
-        <v>check</v>
+        <v>trace</v>
       </c>
       <c r="B57">
         <f>raw!B57</f>
@@ -2175,7 +2175,7 @@
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>raw!A58</f>
-        <v>error</v>
+        <v>instanc</v>
       </c>
       <c r="B58">
         <f>raw!B58</f>
@@ -2189,7 +2189,7 @@
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f>raw!A59</f>
-        <v>instanc</v>
+        <v>data</v>
       </c>
       <c r="B59">
         <f>raw!B59</f>
@@ -2203,7 +2203,7 @@
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f>raw!A60</f>
-        <v>printf</v>
+        <v>map</v>
       </c>
       <c r="B60">
         <f>raw!B60</f>
@@ -2217,7 +2217,7 @@
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f>raw!A61</f>
-        <v>trim</v>
+        <v>key</v>
       </c>
       <c r="B61">
         <f>raw!B61</f>
@@ -2231,7 +2231,7 @@
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f>raw!A62</f>
-        <v>updat</v>
+        <v>scanner</v>
       </c>
       <c r="B62">
         <f>raw!B62</f>
@@ -2245,7 +2245,7 @@
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f>raw!A63</f>
-        <v>data</v>
+        <v>printf</v>
       </c>
       <c r="B63">
         <f>raw!B63</f>
@@ -2259,7 +2259,7 @@
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f>raw!A64</f>
-        <v>scanner</v>
+        <v>error</v>
       </c>
       <c r="B64">
         <f>raw!B64</f>
@@ -2273,7 +2273,7 @@
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f>raw!A65</f>
-        <v>temp</v>
+        <v>case</v>
       </c>
       <c r="B65">
         <f>raw!B65</f>
@@ -2287,7 +2287,7 @@
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f>raw!A66</f>
-        <v>case</v>
+        <v>processor</v>
       </c>
       <c r="B66">
         <f>raw!B66</f>
@@ -2301,7 +2301,7 @@
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f>raw!A67</f>
-        <v>key</v>
+        <v>trim</v>
       </c>
       <c r="B67">
         <f>raw!B67</f>
@@ -2315,7 +2315,7 @@
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>raw!A68</f>
-        <v>map</v>
+        <v>updat</v>
       </c>
       <c r="B68">
         <f>raw!B68</f>
@@ -2329,7 +2329,7 @@
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f>raw!A69</f>
-        <v>processor</v>
+        <v>temp</v>
       </c>
       <c r="B69">
         <f>raw!B69</f>
@@ -2343,7 +2343,7 @@
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f>raw!A70</f>
-        <v>display</v>
+        <v>field</v>
       </c>
       <c r="B70">
         <f>raw!B70</f>
@@ -2357,7 +2357,7 @@
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f>raw!A71</f>
-        <v>tre</v>
+        <v>negat</v>
       </c>
       <c r="B71">
         <f>raw!B71</f>
@@ -2371,7 +2371,7 @@
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f>raw!A72</f>
-        <v>empti</v>
+        <v>tre</v>
       </c>
       <c r="B72">
         <f>raw!B72</f>
@@ -2385,7 +2385,7 @@
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f>raw!A73</f>
-        <v>vector</v>
+        <v>float</v>
       </c>
       <c r="B73">
         <f>raw!B73</f>
@@ -2399,7 +2399,7 @@
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f>raw!A74</f>
-        <v>filenam</v>
+        <v>empti</v>
       </c>
       <c r="B74">
         <f>raw!B74</f>
@@ -2413,7 +2413,7 @@
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f>raw!A75</f>
-        <v>float</v>
+        <v>half</v>
       </c>
       <c r="B75">
         <f>raw!B75</f>
@@ -2427,7 +2427,7 @@
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f>raw!A76</f>
-        <v>negat</v>
+        <v>formatt</v>
       </c>
       <c r="B76">
         <f>raw!B76</f>
@@ -2441,7 +2441,7 @@
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f>raw!A77</f>
-        <v>index</v>
+        <v>bound</v>
       </c>
       <c r="B77">
         <f>raw!B77</f>
@@ -2455,7 +2455,7 @@
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f>raw!A78</f>
-        <v>calc</v>
+        <v>vector</v>
       </c>
       <c r="B78">
         <f>raw!B78</f>
@@ -2469,7 +2469,7 @@
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f>raw!A79</f>
-        <v>bound</v>
+        <v>overrid</v>
       </c>
       <c r="B79">
         <f>raw!B79</f>
@@ -2483,7 +2483,7 @@
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f>raw!A80</f>
-        <v>formatt</v>
+        <v>index</v>
       </c>
       <c r="B80">
         <f>raw!B80</f>
@@ -2497,7 +2497,7 @@
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f>raw!A81</f>
-        <v>overrid</v>
+        <v>calc</v>
       </c>
       <c r="B81">
         <f>raw!B81</f>
@@ -2525,7 +2525,7 @@
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f>raw!A83</f>
-        <v>half</v>
+        <v>display</v>
       </c>
       <c r="B83">
         <f>raw!B83</f>
@@ -2539,7 +2539,7 @@
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f>raw!A84</f>
-        <v>field</v>
+        <v>filenam</v>
       </c>
       <c r="B84">
         <f>raw!B84</f>
@@ -2553,7 +2553,7 @@
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f>raw!A85</f>
-        <v>amount</v>
+        <v>lower</v>
       </c>
       <c r="B85">
         <f>raw!B85</f>
@@ -2567,7 +2567,7 @@
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f>raw!A86</f>
-        <v>initialis</v>
+        <v>exit</v>
       </c>
       <c r="B86">
         <f>raw!B86</f>
@@ -2581,7 +2581,7 @@
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f>raw!A87</f>
-        <v>num</v>
+        <v>order</v>
       </c>
       <c r="B87">
         <f>raw!B87</f>
@@ -2595,7 +2595,7 @@
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f>raw!A88</f>
-        <v>lower</v>
+        <v>remov</v>
       </c>
       <c r="B88">
         <f>raw!B88</f>
@@ -2609,7 +2609,7 @@
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f>raw!A89</f>
-        <v>exit</v>
+        <v>copi</v>
       </c>
       <c r="B89">
         <f>raw!B89</f>
@@ -2623,7 +2623,7 @@
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f>raw!A90</f>
-        <v>digit</v>
+        <v>initialis</v>
       </c>
       <c r="B90">
         <f>raw!B90</f>
@@ -2637,7 +2637,7 @@
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f>raw!A91</f>
-        <v>match</v>
+        <v>runtim</v>
       </c>
       <c r="B91">
         <f>raw!B91</f>
@@ -2651,7 +2651,7 @@
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f>raw!A92</f>
-        <v>order</v>
+        <v>match</v>
       </c>
       <c r="B92">
         <f>raw!B92</f>
@@ -2665,7 +2665,7 @@
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f>raw!A93</f>
-        <v>remov</v>
+        <v>stream</v>
       </c>
       <c r="B93">
         <f>raw!B93</f>
@@ -2679,7 +2679,7 @@
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f>raw!A94</f>
-        <v>runtim</v>
+        <v>digit</v>
       </c>
       <c r="B94">
         <f>raw!B94</f>
@@ -2693,7 +2693,7 @@
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f>raw!A95</f>
-        <v>copi</v>
+        <v>amount</v>
       </c>
       <c r="B95">
         <f>raw!B95</f>
@@ -2707,7 +2707,7 @@
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f>raw!A96</f>
-        <v>stream</v>
+        <v>num</v>
       </c>
       <c r="B96">
         <f>raw!B96</f>
@@ -2721,7 +2721,7 @@
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f>raw!A97</f>
-        <v>uid</v>
+        <v>databas</v>
       </c>
       <c r="B97">
         <f>raw!B97</f>
@@ -2735,7 +2735,7 @@
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f>raw!A98</f>
-        <v>lang</v>
+        <v>null</v>
       </c>
       <c r="B98">
         <f>raw!B98</f>
@@ -2749,7 +2749,7 @@
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f>raw!A99</f>
-        <v>null</v>
+        <v>warn</v>
       </c>
       <c r="B99">
         <f>raw!B99</f>
@@ -2763,7 +2763,7 @@
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f>raw!A100</f>
-        <v>suppress</v>
+        <v>unround</v>
       </c>
       <c r="B100">
         <f>raw!B100</f>
@@ -2777,7 +2777,7 @@
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f>raw!A101</f>
-        <v>sum</v>
+        <v>version</v>
       </c>
       <c r="B101">
         <f>raw!B101</f>
@@ -2791,7 +2791,7 @@
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f>raw!A102</f>
-        <v>err</v>
+        <v>oper</v>
       </c>
       <c r="B102">
         <f>raw!B102</f>
@@ -2805,7 +2805,7 @@
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f>raw!A103</f>
-        <v>rounder</v>
+        <v>err</v>
       </c>
       <c r="B103">
         <f>raw!B103</f>
@@ -2819,7 +2819,7 @@
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f>raw!A104</f>
-        <v>argum</v>
+        <v>str</v>
       </c>
       <c r="B104">
         <f>raw!B104</f>
@@ -2833,7 +2833,7 @@
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f>raw!A105</f>
-        <v>warn</v>
+        <v>count</v>
       </c>
       <c r="B105">
         <f>raw!B105</f>
@@ -2847,7 +2847,7 @@
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f>raw!A106</f>
-        <v>ignor</v>
+        <v>duplic</v>
       </c>
       <c r="B106">
         <f>raw!B106</f>
@@ -2861,7 +2861,7 @@
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f>raw!A107</f>
-        <v>databas</v>
+        <v>ignor</v>
       </c>
       <c r="B107">
         <f>raw!B107</f>
@@ -2875,7 +2875,7 @@
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f>raw!A108</f>
-        <v>gener</v>
+        <v>iter</v>
       </c>
       <c r="B108">
         <f>raw!B108</f>
@@ -2889,7 +2889,7 @@
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f>raw!A109</f>
-        <v>str</v>
+        <v>gener</v>
       </c>
       <c r="B109">
         <f>raw!B109</f>
@@ -2903,7 +2903,7 @@
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f>raw!A110</f>
-        <v>charact</v>
+        <v>lang</v>
       </c>
       <c r="B110">
         <f>raw!B110</f>
@@ -2917,7 +2917,7 @@
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f>raw!A111</f>
-        <v>abstract</v>
+        <v>return</v>
       </c>
       <c r="B111">
         <f>raw!B111</f>
@@ -2931,7 +2931,7 @@
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f>raw!A112</f>
-        <v>version</v>
+        <v>uid</v>
       </c>
       <c r="B112">
         <f>raw!B112</f>
@@ -2945,7 +2945,7 @@
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f>raw!A113</f>
-        <v>unround</v>
+        <v>sum</v>
       </c>
       <c r="B113">
         <f>raw!B113</f>
@@ -2959,7 +2959,7 @@
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f>raw!A114</f>
-        <v>count</v>
+        <v>argum</v>
       </c>
       <c r="B114">
         <f>raw!B114</f>
@@ -2973,7 +2973,7 @@
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f>raw!A115</f>
-        <v>duplic</v>
+        <v>charact</v>
       </c>
       <c r="B115">
         <f>raw!B115</f>
@@ -2987,7 +2987,7 @@
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f>raw!A116</f>
-        <v>iter</v>
+        <v>abstract</v>
       </c>
       <c r="B116">
         <f>raw!B116</f>
@@ -3001,7 +3001,7 @@
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f>raw!A117</f>
-        <v>oper</v>
+        <v>suppress</v>
       </c>
       <c r="B117">
         <f>raw!B117</f>
@@ -3015,21 +3015,21 @@
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f>raw!A118</f>
-        <v>return</v>
+        <v>sourc</v>
       </c>
       <c r="B118">
         <f>raw!B118</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C118" s="1">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f>raw!A119</f>
-        <v>revers</v>
+        <v>path</v>
       </c>
       <c r="B119">
         <f>raw!B119</f>
@@ -3057,7 +3057,7 @@
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f>raw!A121</f>
-        <v>loader</v>
+        <v>scan</v>
       </c>
       <c r="B121">
         <f>raw!B121</f>
@@ -3071,7 +3071,7 @@
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f>raw!A122</f>
-        <v>summari</v>
+        <v>find</v>
       </c>
       <c r="B122">
         <f>raw!B122</f>
@@ -3085,7 +3085,7 @@
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f>raw!A123</f>
-        <v>reformat</v>
+        <v>summari</v>
       </c>
       <c r="B123">
         <f>raw!B123</f>
@@ -3099,7 +3099,7 @@
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f>raw!A124</f>
-        <v>token</v>
+        <v>caught</v>
       </c>
       <c r="B124">
         <f>raw!B124</f>
@@ -3113,7 +3113,7 @@
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f>raw!A125</f>
-        <v>comma</v>
+        <v>repeat</v>
       </c>
       <c r="B125">
         <f>raw!B125</f>
@@ -3127,7 +3127,7 @@
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f>raw!A126</f>
-        <v>uniqu</v>
+        <v>test</v>
       </c>
       <c r="B126">
         <f>raw!B126</f>
@@ -3141,7 +3141,7 @@
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f>raw!A127</f>
-        <v>caught</v>
+        <v>factori</v>
       </c>
       <c r="B127">
         <f>raw!B127</f>
@@ -3155,7 +3155,7 @@
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f>raw!A128</f>
-        <v>method</v>
+        <v>old</v>
       </c>
       <c r="B128">
         <f>raw!B128</f>
@@ -3169,7 +3169,7 @@
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f>raw!A129</f>
-        <v>comput</v>
+        <v>initi</v>
       </c>
       <c r="B129">
         <f>raw!B129</f>
@@ -3183,7 +3183,7 @@
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
         <f>raw!A130</f>
-        <v>percentag</v>
+        <v>remain</v>
       </c>
       <c r="B130">
         <f>raw!B130</f>
@@ -3197,7 +3197,7 @@
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
         <f>raw!A131</f>
-        <v>scan</v>
+        <v>invalid</v>
       </c>
       <c r="B131">
         <f>raw!B131</f>
@@ -3211,7 +3211,7 @@
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <f>raw!A132</f>
-        <v>comparison</v>
+        <v>nearest</v>
       </c>
       <c r="B132">
         <f>raw!B132</f>
@@ -3225,7 +3225,7 @@
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f>raw!A133</f>
-        <v>initi</v>
+        <v>pos</v>
       </c>
       <c r="B133">
         <f>raw!B133</f>
@@ -3239,7 +3239,7 @@
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f>raw!A134</f>
-        <v>object</v>
+        <v>boolean</v>
       </c>
       <c r="B134">
         <f>raw!B134</f>
@@ -3253,7 +3253,7 @@
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f>raw!A135</f>
-        <v>space</v>
+        <v>comma</v>
       </c>
       <c r="B135">
         <f>raw!B135</f>
@@ -3267,7 +3267,7 @@
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f>raw!A136</f>
-        <v>find</v>
+        <v>indic</v>
       </c>
       <c r="B136">
         <f>raw!B136</f>
@@ -3281,7 +3281,7 @@
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f>raw!A137</f>
-        <v>load</v>
+        <v>smallest</v>
       </c>
       <c r="B137">
         <f>raw!B137</f>
@@ -3295,7 +3295,7 @@
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f>raw!A138</f>
-        <v>repeat</v>
+        <v>reformat</v>
       </c>
       <c r="B138">
         <f>raw!B138</f>
@@ -3309,7 +3309,7 @@
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f>raw!A139</f>
-        <v>exist</v>
+        <v>object</v>
       </c>
       <c r="B139">
         <f>raw!B139</f>
@@ -3323,7 +3323,7 @@
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f>raw!A140</f>
-        <v>build</v>
+        <v>loader</v>
       </c>
       <c r="B140">
         <f>raw!B140</f>
@@ -3337,7 +3337,7 @@
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f>raw!A141</f>
-        <v>sequenc</v>
+        <v>uniqu</v>
       </c>
       <c r="B141">
         <f>raw!B141</f>
@@ -3351,7 +3351,7 @@
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f>raw!A142</f>
-        <v>smallest</v>
+        <v>token</v>
       </c>
       <c r="B142">
         <f>raw!B142</f>
@@ -3365,7 +3365,7 @@
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f>raw!A143</f>
-        <v>lowest</v>
+        <v>rounder</v>
       </c>
       <c r="B143">
         <f>raw!B143</f>
@@ -3379,7 +3379,7 @@
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f>raw!A144</f>
-        <v>failur</v>
+        <v>sequenc</v>
       </c>
       <c r="B144">
         <f>raw!B144</f>
@@ -3393,7 +3393,7 @@
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f>raw!A145</f>
-        <v>pos</v>
+        <v>method</v>
       </c>
       <c r="B145">
         <f>raw!B145</f>
@@ -3407,7 +3407,7 @@
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f>raw!A146</f>
-        <v>run</v>
+        <v>space</v>
       </c>
       <c r="B146">
         <f>raw!B146</f>
@@ -3421,7 +3421,7 @@
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f>raw!A147</f>
-        <v>test</v>
+        <v>exist</v>
       </c>
       <c r="B147">
         <f>raw!B147</f>
@@ -3435,7 +3435,7 @@
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f>raw!A148</f>
-        <v>boolean</v>
+        <v>build</v>
       </c>
       <c r="B148">
         <f>raw!B148</f>
@@ -3449,7 +3449,7 @@
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f>raw!A149</f>
-        <v>factori</v>
+        <v>run</v>
       </c>
       <c r="B149">
         <f>raw!B149</f>
@@ -3477,7 +3477,7 @@
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f>raw!A151</f>
-        <v>invalid</v>
+        <v>switch</v>
       </c>
       <c r="B151">
         <f>raw!B151</f>
@@ -3491,7 +3491,7 @@
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f>raw!A152</f>
-        <v>indic</v>
+        <v>percentag</v>
       </c>
       <c r="B152">
         <f>raw!B152</f>
@@ -3505,7 +3505,7 @@
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f>raw!A153</f>
-        <v>old</v>
+        <v>revers</v>
       </c>
       <c r="B153">
         <f>raw!B153</f>
@@ -3519,7 +3519,7 @@
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f>raw!A154</f>
-        <v>pass</v>
+        <v>comput</v>
       </c>
       <c r="B154">
         <f>raw!B154</f>
@@ -3533,7 +3533,7 @@
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f>raw!A155</f>
-        <v>nearest</v>
+        <v>load</v>
       </c>
       <c r="B155">
         <f>raw!B155</f>
@@ -3547,7 +3547,7 @@
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f>raw!A156</f>
-        <v>remain</v>
+        <v>pass</v>
       </c>
       <c r="B156">
         <f>raw!B156</f>
@@ -3561,7 +3561,7 @@
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f>raw!A157</f>
-        <v>path</v>
+        <v>retriev</v>
       </c>
       <c r="B157">
         <f>raw!B157</f>
@@ -3575,7 +3575,7 @@
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <f>raw!A158</f>
-        <v>sourc</v>
+        <v>failur</v>
       </c>
       <c r="B158">
         <f>raw!B158</f>
@@ -3589,7 +3589,7 @@
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f>raw!A159</f>
-        <v>switch</v>
+        <v>lowest</v>
       </c>
       <c r="B159">
         <f>raw!B159</f>
@@ -3603,7 +3603,7 @@
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f>raw!A160</f>
-        <v>retriev</v>
+        <v>pointer</v>
       </c>
       <c r="B160">
         <f>raw!B160</f>
@@ -3617,15 +3617,15 @@
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f>raw!A161</f>
-        <v>pointer</v>
+        <v>comparison</v>
       </c>
       <c r="B161">
         <f>raw!B161</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -5583,15 +5583,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B161"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1">
         <v>20</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -5607,7 +5607,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -5615,7 +5615,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -5623,7 +5623,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>20</v>
@@ -5631,7 +5631,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>20</v>
@@ -5639,7 +5639,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>20</v>
@@ -5647,7 +5647,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -5655,7 +5655,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>20</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>20</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -5695,7 +5695,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B14">
         <v>20</v>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B15">
         <v>20</v>
@@ -5711,7 +5711,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B16">
         <v>20</v>
@@ -5719,7 +5719,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>20</v>
@@ -5735,7 +5735,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -5743,7 +5743,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5751,7 +5751,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>19</v>
@@ -5759,7 +5759,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>19</v>
@@ -5767,7 +5767,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>18</v>
@@ -5775,7 +5775,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>18</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>16</v>
@@ -5807,7 +5807,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>16</v>
@@ -5815,7 +5815,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29">
         <v>16</v>
@@ -5823,15 +5823,15 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>15</v>
@@ -5839,7 +5839,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B32">
         <v>15</v>
@@ -5855,7 +5855,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B34">
         <v>15</v>
@@ -5879,7 +5879,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>14</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>14</v>
@@ -5895,7 +5895,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>13</v>
@@ -5911,7 +5911,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B41">
         <v>13</v>
@@ -5919,7 +5919,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>12</v>
@@ -5927,7 +5927,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>12</v>
@@ -5951,7 +5951,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>10</v>
@@ -5959,7 +5959,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>10</v>
@@ -5967,7 +5967,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>10</v>
@@ -5983,7 +5983,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>9</v>
@@ -5991,7 +5991,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>9</v>
@@ -5999,7 +5999,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52">
         <v>9</v>
@@ -6007,7 +6007,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>8</v>
@@ -6015,7 +6015,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
         <v>8</v>
@@ -6031,15 +6031,15 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B57">
         <v>6</v>
@@ -6047,7 +6047,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>5</v>
@@ -6055,7 +6055,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B59">
         <v>5</v>
@@ -6063,7 +6063,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B60">
         <v>5</v>
@@ -6071,7 +6071,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B61">
         <v>5</v>
@@ -6079,7 +6079,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
         <v>5</v>
@@ -6087,7 +6087,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -6095,7 +6095,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B64">
         <v>5</v>
@@ -6103,7 +6103,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B67">
         <v>5</v>
@@ -6127,7 +6127,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B68">
         <v>5</v>
@@ -6135,7 +6135,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -6143,7 +6143,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B70">
         <v>4</v>
@@ -6151,7 +6151,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B71">
         <v>4</v>
@@ -6159,7 +6159,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>4</v>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
         <v>4</v>
@@ -6175,7 +6175,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B74">
         <v>4</v>
@@ -6183,7 +6183,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B75">
         <v>4</v>
@@ -6191,7 +6191,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>4</v>
@@ -6199,7 +6199,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B78">
         <v>4</v>
@@ -6215,7 +6215,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
         <v>4</v>
@@ -6223,7 +6223,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B80">
         <v>4</v>
@@ -6231,7 +6231,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B81">
         <v>4</v>
@@ -6247,7 +6247,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B83">
         <v>4</v>
@@ -6255,7 +6255,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B84">
         <v>4</v>
@@ -6263,7 +6263,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B85">
         <v>3</v>
@@ -6271,7 +6271,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B86">
         <v>3</v>
@@ -6279,7 +6279,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B87">
         <v>3</v>
@@ -6287,7 +6287,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B88">
         <v>3</v>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B89">
         <v>3</v>
@@ -6303,7 +6303,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B90">
         <v>3</v>
@@ -6311,7 +6311,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B91">
         <v>3</v>
@@ -6319,7 +6319,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>3</v>
@@ -6327,7 +6327,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B93">
         <v>3</v>
@@ -6335,7 +6335,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B94">
         <v>3</v>
@@ -6343,7 +6343,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B95">
         <v>3</v>
@@ -6351,7 +6351,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B96">
         <v>3</v>
@@ -6359,7 +6359,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B97">
         <v>2</v>
@@ -6367,7 +6367,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98">
         <v>2</v>
@@ -6375,7 +6375,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>2</v>
@@ -6383,7 +6383,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B100">
         <v>2</v>
@@ -6391,7 +6391,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -6399,7 +6399,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -6407,7 +6407,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>2</v>
@@ -6415,7 +6415,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>2</v>
@@ -6423,7 +6423,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -6431,7 +6431,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -6439,7 +6439,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -6447,7 +6447,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -6455,7 +6455,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -6463,7 +6463,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -6471,7 +6471,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -6479,7 +6479,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B112">
         <v>2</v>
@@ -6487,7 +6487,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B113">
         <v>2</v>
@@ -6495,7 +6495,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -6503,7 +6503,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B115">
         <v>2</v>
@@ -6511,7 +6511,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B116">
         <v>2</v>
@@ -6519,7 +6519,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -6527,15 +6527,15 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -6551,7 +6551,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -6559,7 +6559,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -6567,7 +6567,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -6575,7 +6575,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -6583,7 +6583,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -6591,7 +6591,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -6599,7 +6599,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -6607,7 +6607,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -6615,7 +6615,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -6623,7 +6623,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -6631,7 +6631,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -6639,7 +6639,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -6647,7 +6647,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -6655,7 +6655,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -6663,7 +6663,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -6671,7 +6671,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -6679,7 +6679,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -6687,7 +6687,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -6695,7 +6695,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -6703,7 +6703,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -6711,7 +6711,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -6719,7 +6719,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -6727,7 +6727,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -6735,7 +6735,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -6743,7 +6743,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -6751,7 +6751,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -6759,7 +6759,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -6767,7 +6767,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -6775,7 +6775,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -6791,7 +6791,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -6799,7 +6799,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -6807,7 +6807,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -6815,7 +6815,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -6823,7 +6823,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -6831,7 +6831,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -6839,7 +6839,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -6847,7 +6847,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -6855,7 +6855,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -6863,7 +6863,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -6871,10 +6871,10 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/results/ugrad-009-01/ugrad-009-01-freq-design-20.xlsx
+++ b/results/ugrad-009-01/ugrad-009-01-freq-design-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desti\Documents\GitHub\P4P\results\ugrad-009-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E49587-7DB1-4EBA-9752-6750C5A512DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C66192-A42D-49B2-973D-03C6603BC1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9165" yWindow="2400" windowWidth="9330" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ugrad-009-01-freq-20" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t>main</t>
   </si>
@@ -213,9 +213,6 @@
     <t>instanc</t>
   </si>
   <si>
-    <t>printf</t>
-  </si>
-  <si>
     <t>trim</t>
   </si>
   <si>
@@ -246,9 +243,6 @@
     <t>display</t>
   </si>
   <si>
-    <t>tre</t>
-  </si>
-  <si>
     <t>empti</t>
   </si>
   <si>
@@ -483,9 +477,6 @@
     <t>factori</t>
   </si>
   <si>
-    <t>previous</t>
-  </si>
-  <si>
     <t>invalid</t>
   </si>
   <si>
@@ -516,7 +507,22 @@
     <t>retriev</t>
   </si>
   <si>
-    <t>pointer</t>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>ioe</t>
+  </si>
+  <si>
+    <t>sorter</t>
+  </si>
+  <si>
+    <t>checker</t>
+  </si>
+  <si>
+    <t>printer</t>
+  </si>
+  <si>
+    <t>point</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1380,7 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>raw!A1</f>
-        <v>arg</v>
+        <v>int</v>
       </c>
       <c r="B1">
         <f>raw!B1</f>
@@ -1391,7 +1397,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>raw!A2</f>
-        <v>print</v>
+        <v>java</v>
       </c>
       <c r="B2">
         <f>raw!B2</f>
@@ -1405,7 +1411,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>raw!A3</f>
-        <v>get</v>
+        <v>arg</v>
       </c>
       <c r="B3">
         <f>raw!B3</f>
@@ -1419,7 +1425,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>raw!A4</f>
-        <v>except</v>
+        <v>split</v>
       </c>
       <c r="B4">
         <f>raw!B4</f>
@@ -1433,7 +1439,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>raw!A5</f>
-        <v>main</v>
+        <v>file</v>
       </c>
       <c r="B5">
         <f>raw!B5</f>
@@ -1447,7 +1453,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>raw!A6</f>
-        <v>util</v>
+        <v>main</v>
       </c>
       <c r="B6">
         <f>raw!B6</f>
@@ -1461,7 +1467,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>raw!A7</f>
-        <v>split</v>
+        <v>format</v>
       </c>
       <c r="B7">
         <f>raw!B7</f>
@@ -1475,7 +1481,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>raw!A8</f>
-        <v>system</v>
+        <v>string</v>
       </c>
       <c r="B8">
         <f>raw!B8</f>
@@ -1489,7 +1495,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>raw!A9</f>
-        <v>java</v>
+        <v>integ</v>
       </c>
       <c r="B9">
         <f>raw!B9</f>
@@ -1503,7 +1509,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>raw!A10</f>
-        <v>io</v>
+        <v>util</v>
       </c>
       <c r="B10">
         <f>raw!B10</f>
@@ -1517,7 +1523,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>raw!A11</f>
-        <v>pars</v>
+        <v>get</v>
       </c>
       <c r="B11">
         <f>raw!B11</f>
@@ -1531,7 +1537,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>raw!A12</f>
-        <v>int</v>
+        <v>io</v>
       </c>
       <c r="B12">
         <f>raw!B12</f>
@@ -1559,7 +1565,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>raw!A14</f>
-        <v>string</v>
+        <v>line</v>
       </c>
       <c r="B14">
         <f>raw!B14</f>
@@ -1573,7 +1579,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>raw!A15</f>
-        <v>line</v>
+        <v>except</v>
       </c>
       <c r="B15">
         <f>raw!B15</f>
@@ -1587,7 +1593,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>raw!A16</f>
-        <v>integ</v>
+        <v>pars</v>
       </c>
       <c r="B16">
         <f>raw!B16</f>
@@ -1601,7 +1607,7 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>raw!A17</f>
-        <v>file</v>
+        <v>print</v>
       </c>
       <c r="B17">
         <f>raw!B17</f>
@@ -1615,7 +1621,7 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>raw!A18</f>
-        <v>format</v>
+        <v>system</v>
       </c>
       <c r="B18">
         <f>raw!B18</f>
@@ -1629,7 +1635,7 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>raw!A19</f>
-        <v>add</v>
+        <v>doubl</v>
       </c>
       <c r="B19">
         <f>raw!B19</f>
@@ -1643,7 +1649,7 @@
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>raw!A20</f>
-        <v>doubl</v>
+        <v>end</v>
       </c>
       <c r="B20">
         <f>raw!B20</f>
@@ -1657,7 +1663,7 @@
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>raw!A21</f>
-        <v>println</v>
+        <v>add</v>
       </c>
       <c r="B21">
         <f>raw!B21</f>
@@ -1671,7 +1677,7 @@
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>raw!A22</f>
-        <v>end</v>
+        <v>println</v>
       </c>
       <c r="B22">
         <f>raw!B22</f>
@@ -1685,7 +1691,7 @@
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>raw!A23</f>
-        <v>list</v>
+        <v>equal</v>
       </c>
       <c r="B23">
         <f>raw!B23</f>
@@ -1699,7 +1705,7 @@
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>raw!A24</f>
-        <v>equal</v>
+        <v>list</v>
       </c>
       <c r="B24">
         <f>raw!B24</f>
@@ -1713,7 +1719,7 @@
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>raw!A25</f>
-        <v>compar</v>
+        <v>input</v>
       </c>
       <c r="B25">
         <f>raw!B25</f>
@@ -1727,7 +1733,7 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>raw!A26</f>
-        <v>input</v>
+        <v>compar</v>
       </c>
       <c r="B26">
         <f>raw!B26</f>
@@ -1745,17 +1751,17 @@
       </c>
       <c r="B27">
         <f>raw!B27</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>raw!A28</f>
-        <v>close</v>
+        <v>sort</v>
       </c>
       <c r="B28">
         <f>raw!B28</f>
@@ -1769,21 +1775,21 @@
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>raw!A29</f>
-        <v>sort</v>
+        <v>set</v>
       </c>
       <c r="B29">
         <f>raw!B29</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>raw!A30</f>
-        <v>array</v>
+        <v>total</v>
       </c>
       <c r="B30">
         <f>raw!B30</f>
@@ -1797,7 +1803,7 @@
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>raw!A31</f>
-        <v>process</v>
+        <v>array</v>
       </c>
       <c r="B31">
         <f>raw!B31</f>
@@ -1811,7 +1817,7 @@
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>raw!A32</f>
-        <v>reader</v>
+        <v>process</v>
       </c>
       <c r="B32">
         <f>raw!B32</f>
@@ -1825,35 +1831,35 @@
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>raw!A33</f>
-        <v>total</v>
+        <v>read</v>
       </c>
       <c r="B33">
         <f>raw!B33</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>raw!A34</f>
-        <v>set</v>
+        <v>length</v>
       </c>
       <c r="B34">
         <f>raw!B34</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>raw!A35</f>
-        <v>length</v>
+        <v>calcul</v>
       </c>
       <c r="B35">
         <f>raw!B35</f>
@@ -1881,7 +1887,7 @@
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>raw!A37</f>
-        <v>calcul</v>
+        <v>reader</v>
       </c>
       <c r="B37">
         <f>raw!B37</f>
@@ -1895,21 +1901,21 @@
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>raw!A38</f>
-        <v>read</v>
+        <v>math</v>
       </c>
       <c r="B38">
         <f>raw!B38</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="0"/>
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>raw!A39</f>
-        <v>found</v>
+        <v>close</v>
       </c>
       <c r="B39">
         <f>raw!B39</f>
@@ -1923,7 +1929,7 @@
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>raw!A40</f>
-        <v>contain</v>
+        <v>found</v>
       </c>
       <c r="B40">
         <f>raw!B40</f>
@@ -1937,7 +1943,7 @@
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>raw!A41</f>
-        <v>math</v>
+        <v>contain</v>
       </c>
       <c r="B41">
         <f>raw!B41</f>
@@ -1951,7 +1957,7 @@
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>raw!A42</f>
-        <v>collect</v>
+        <v>replac</v>
       </c>
       <c r="B42">
         <f>raw!B42</f>
@@ -1965,7 +1971,7 @@
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>raw!A43</f>
-        <v>replac</v>
+        <v>collect</v>
       </c>
       <c r="B43">
         <f>raw!B43</f>
@@ -1979,7 +1985,7 @@
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>raw!A44</f>
-        <v>decim</v>
+        <v>output</v>
       </c>
       <c r="B44">
         <f>raw!B44</f>
@@ -1993,7 +1999,7 @@
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>raw!A45</f>
-        <v>output</v>
+        <v>decim</v>
       </c>
       <c r="B45">
         <f>raw!B45</f>
@@ -2007,7 +2013,7 @@
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>raw!A46</f>
-        <v>next</v>
+        <v>type</v>
       </c>
       <c r="B46">
         <f>raw!B46</f>
@@ -2021,7 +2027,7 @@
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>raw!A47</f>
-        <v>size</v>
+        <v>number</v>
       </c>
       <c r="B47">
         <f>raw!B47</f>
@@ -2035,7 +2041,7 @@
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>raw!A48</f>
-        <v>type</v>
+        <v>size</v>
       </c>
       <c r="B48">
         <f>raw!B48</f>
@@ -2049,7 +2055,7 @@
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>raw!A49</f>
-        <v>number</v>
+        <v>next</v>
       </c>
       <c r="B49">
         <f>raw!B49</f>
@@ -2091,7 +2097,7 @@
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>raw!A52</f>
-        <v>stack</v>
+        <v>trace</v>
       </c>
       <c r="B52">
         <f>raw!B52</f>
@@ -2105,21 +2111,21 @@
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>raw!A53</f>
-        <v>substr</v>
+        <v>stack</v>
       </c>
       <c r="B53">
         <f>raw!B53</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" s="1">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>raw!A54</f>
-        <v>new</v>
+        <v>valu</v>
       </c>
       <c r="B54">
         <f>raw!B54</f>
@@ -2133,7 +2139,7 @@
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>raw!A55</f>
-        <v>valu</v>
+        <v>new</v>
       </c>
       <c r="B55">
         <f>raw!B55</f>
@@ -2147,35 +2153,35 @@
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f>raw!A56</f>
-        <v>check</v>
+        <v>substr</v>
       </c>
       <c r="B56">
         <f>raw!B56</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" s="1">
         <f t="shared" si="0"/>
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f>raw!A57</f>
-        <v>trace</v>
+        <v>check</v>
       </c>
       <c r="B57">
         <f>raw!B57</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C57" s="1">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>raw!A58</f>
-        <v>instanc</v>
+        <v>map</v>
       </c>
       <c r="B58">
         <f>raw!B58</f>
@@ -2189,7 +2195,7 @@
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f>raw!A59</f>
-        <v>data</v>
+        <v>temp</v>
       </c>
       <c r="B59">
         <f>raw!B59</f>
@@ -2203,7 +2209,7 @@
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f>raw!A60</f>
-        <v>map</v>
+        <v>processor</v>
       </c>
       <c r="B60">
         <f>raw!B60</f>
@@ -2217,7 +2223,7 @@
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f>raw!A61</f>
-        <v>key</v>
+        <v>data</v>
       </c>
       <c r="B61">
         <f>raw!B61</f>
@@ -2231,7 +2237,7 @@
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f>raw!A62</f>
-        <v>scanner</v>
+        <v>instanc</v>
       </c>
       <c r="B62">
         <f>raw!B62</f>
@@ -2245,7 +2251,7 @@
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f>raw!A63</f>
-        <v>printf</v>
+        <v>error</v>
       </c>
       <c r="B63">
         <f>raw!B63</f>
@@ -2259,7 +2265,7 @@
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f>raw!A64</f>
-        <v>error</v>
+        <v>updat</v>
       </c>
       <c r="B64">
         <f>raw!B64</f>
@@ -2287,7 +2293,7 @@
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f>raw!A66</f>
-        <v>processor</v>
+        <v>key</v>
       </c>
       <c r="B66">
         <f>raw!B66</f>
@@ -2315,35 +2321,35 @@
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>raw!A68</f>
-        <v>updat</v>
+        <v>half</v>
       </c>
       <c r="B68">
         <f>raw!B68</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C68" s="1">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f>raw!A69</f>
-        <v>temp</v>
+        <v>hash</v>
       </c>
       <c r="B69">
         <f>raw!B69</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C69" s="1">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f>raw!A70</f>
-        <v>field</v>
+        <v>float</v>
       </c>
       <c r="B70">
         <f>raw!B70</f>
@@ -2357,7 +2363,7 @@
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f>raw!A71</f>
-        <v>negat</v>
+        <v>index</v>
       </c>
       <c r="B71">
         <f>raw!B71</f>
@@ -2371,7 +2377,7 @@
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f>raw!A72</f>
-        <v>tre</v>
+        <v>bound</v>
       </c>
       <c r="B72">
         <f>raw!B72</f>
@@ -2385,7 +2391,7 @@
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f>raw!A73</f>
-        <v>float</v>
+        <v>calc</v>
       </c>
       <c r="B73">
         <f>raw!B73</f>
@@ -2399,7 +2405,7 @@
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f>raw!A74</f>
-        <v>empti</v>
+        <v>field</v>
       </c>
       <c r="B74">
         <f>raw!B74</f>
@@ -2413,7 +2419,7 @@
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f>raw!A75</f>
-        <v>half</v>
+        <v>negat</v>
       </c>
       <c r="B75">
         <f>raw!B75</f>
@@ -2427,7 +2433,7 @@
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f>raw!A76</f>
-        <v>formatt</v>
+        <v>empti</v>
       </c>
       <c r="B76">
         <f>raw!B76</f>
@@ -2441,7 +2447,7 @@
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f>raw!A77</f>
-        <v>bound</v>
+        <v>display</v>
       </c>
       <c r="B77">
         <f>raw!B77</f>
@@ -2455,7 +2461,7 @@
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f>raw!A78</f>
-        <v>vector</v>
+        <v>formatt</v>
       </c>
       <c r="B78">
         <f>raw!B78</f>
@@ -2469,7 +2475,7 @@
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f>raw!A79</f>
-        <v>overrid</v>
+        <v>scanner</v>
       </c>
       <c r="B79">
         <f>raw!B79</f>
@@ -2483,7 +2489,7 @@
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f>raw!A80</f>
-        <v>index</v>
+        <v>filenam</v>
       </c>
       <c r="B80">
         <f>raw!B80</f>
@@ -2497,7 +2503,7 @@
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f>raw!A81</f>
-        <v>calc</v>
+        <v>overrid</v>
       </c>
       <c r="B81">
         <f>raw!B81</f>
@@ -2511,7 +2517,7 @@
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f>raw!A82</f>
-        <v>hash</v>
+        <v>vector</v>
       </c>
       <c r="B82">
         <f>raw!B82</f>
@@ -2525,35 +2531,35 @@
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f>raw!A83</f>
-        <v>display</v>
+        <v>order</v>
       </c>
       <c r="B83">
         <f>raw!B83</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C83" s="1">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f>raw!A84</f>
-        <v>filenam</v>
+        <v>stream</v>
       </c>
       <c r="B84">
         <f>raw!B84</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C84" s="1">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f>raw!A85</f>
-        <v>lower</v>
+        <v>remov</v>
       </c>
       <c r="B85">
         <f>raw!B85</f>
@@ -2567,7 +2573,7 @@
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f>raw!A86</f>
-        <v>exit</v>
+        <v>digit</v>
       </c>
       <c r="B86">
         <f>raw!B86</f>
@@ -2581,7 +2587,7 @@
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f>raw!A87</f>
-        <v>order</v>
+        <v>match</v>
       </c>
       <c r="B87">
         <f>raw!B87</f>
@@ -2595,7 +2601,7 @@
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f>raw!A88</f>
-        <v>remov</v>
+        <v>lower</v>
       </c>
       <c r="B88">
         <f>raw!B88</f>
@@ -2623,7 +2629,7 @@
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f>raw!A90</f>
-        <v>initialis</v>
+        <v>num</v>
       </c>
       <c r="B90">
         <f>raw!B90</f>
@@ -2637,7 +2643,7 @@
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f>raw!A91</f>
-        <v>runtim</v>
+        <v>amount</v>
       </c>
       <c r="B91">
         <f>raw!B91</f>
@@ -2651,7 +2657,7 @@
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f>raw!A92</f>
-        <v>match</v>
+        <v>runtim</v>
       </c>
       <c r="B92">
         <f>raw!B92</f>
@@ -2665,7 +2671,7 @@
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f>raw!A93</f>
-        <v>stream</v>
+        <v>exit</v>
       </c>
       <c r="B93">
         <f>raw!B93</f>
@@ -2679,7 +2685,7 @@
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f>raw!A94</f>
-        <v>digit</v>
+        <v>initialis</v>
       </c>
       <c r="B94">
         <f>raw!B94</f>
@@ -2693,7 +2699,7 @@
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f>raw!A95</f>
-        <v>amount</v>
+        <v>tree</v>
       </c>
       <c r="B95">
         <f>raw!B95</f>
@@ -2707,21 +2713,21 @@
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f>raw!A96</f>
-        <v>num</v>
+        <v>count</v>
       </c>
       <c r="B96">
         <f>raw!B96</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96" s="1">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f>raw!A97</f>
-        <v>databas</v>
+        <v>iter</v>
       </c>
       <c r="B97">
         <f>raw!B97</f>
@@ -2735,7 +2741,7 @@
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f>raw!A98</f>
-        <v>null</v>
+        <v>str</v>
       </c>
       <c r="B98">
         <f>raw!B98</f>
@@ -2763,7 +2769,7 @@
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f>raw!A100</f>
-        <v>unround</v>
+        <v>null</v>
       </c>
       <c r="B100">
         <f>raw!B100</f>
@@ -2777,7 +2783,7 @@
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f>raw!A101</f>
-        <v>version</v>
+        <v>oper</v>
       </c>
       <c r="B101">
         <f>raw!B101</f>
@@ -2791,7 +2797,7 @@
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f>raw!A102</f>
-        <v>oper</v>
+        <v>duplic</v>
       </c>
       <c r="B102">
         <f>raw!B102</f>
@@ -2805,7 +2811,7 @@
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f>raw!A103</f>
-        <v>err</v>
+        <v>argum</v>
       </c>
       <c r="B103">
         <f>raw!B103</f>
@@ -2819,7 +2825,7 @@
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f>raw!A104</f>
-        <v>str</v>
+        <v>charact</v>
       </c>
       <c r="B104">
         <f>raw!B104</f>
@@ -2833,7 +2839,7 @@
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f>raw!A105</f>
-        <v>count</v>
+        <v>databas</v>
       </c>
       <c r="B105">
         <f>raw!B105</f>
@@ -2847,7 +2853,7 @@
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f>raw!A106</f>
-        <v>duplic</v>
+        <v>return</v>
       </c>
       <c r="B106">
         <f>raw!B106</f>
@@ -2875,7 +2881,7 @@
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f>raw!A108</f>
-        <v>iter</v>
+        <v>uid</v>
       </c>
       <c r="B108">
         <f>raw!B108</f>
@@ -2889,7 +2895,7 @@
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f>raw!A109</f>
-        <v>gener</v>
+        <v>lang</v>
       </c>
       <c r="B109">
         <f>raw!B109</f>
@@ -2903,7 +2909,7 @@
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f>raw!A110</f>
-        <v>lang</v>
+        <v>gener</v>
       </c>
       <c r="B110">
         <f>raw!B110</f>
@@ -2917,7 +2923,7 @@
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f>raw!A111</f>
-        <v>return</v>
+        <v>unround</v>
       </c>
       <c r="B111">
         <f>raw!B111</f>
@@ -2931,7 +2937,7 @@
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f>raw!A112</f>
-        <v>uid</v>
+        <v>abstract</v>
       </c>
       <c r="B112">
         <f>raw!B112</f>
@@ -2945,7 +2951,7 @@
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f>raw!A113</f>
-        <v>sum</v>
+        <v>suppress</v>
       </c>
       <c r="B113">
         <f>raw!B113</f>
@@ -2959,7 +2965,7 @@
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f>raw!A114</f>
-        <v>argum</v>
+        <v>err</v>
       </c>
       <c r="B114">
         <f>raw!B114</f>
@@ -2973,7 +2979,7 @@
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f>raw!A115</f>
-        <v>charact</v>
+        <v>sum</v>
       </c>
       <c r="B115">
         <f>raw!B115</f>
@@ -2987,35 +2993,35 @@
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f>raw!A116</f>
-        <v>abstract</v>
+        <v>version</v>
       </c>
       <c r="B116">
         <f>raw!B116</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C116" s="1">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f>raw!A117</f>
-        <v>suppress</v>
+        <v>exist</v>
       </c>
       <c r="B117">
         <f>raw!B117</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C117" s="1">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f>raw!A118</f>
-        <v>sourc</v>
+        <v>switch</v>
       </c>
       <c r="B118">
         <f>raw!B118</f>
@@ -3029,7 +3035,7 @@
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f>raw!A119</f>
-        <v>path</v>
+        <v>uniqu</v>
       </c>
       <c r="B119">
         <f>raw!B119</f>
@@ -3043,7 +3049,7 @@
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f>raw!A120</f>
-        <v>clear</v>
+        <v>method</v>
       </c>
       <c r="B120">
         <f>raw!B120</f>
@@ -3057,7 +3063,7 @@
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f>raw!A121</f>
-        <v>scan</v>
+        <v>object</v>
       </c>
       <c r="B121">
         <f>raw!B121</f>
@@ -3085,7 +3091,7 @@
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f>raw!A123</f>
-        <v>summari</v>
+        <v>build</v>
       </c>
       <c r="B123">
         <f>raw!B123</f>
@@ -3099,7 +3105,7 @@
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f>raw!A124</f>
-        <v>caught</v>
+        <v>test</v>
       </c>
       <c r="B124">
         <f>raw!B124</f>
@@ -3113,7 +3119,7 @@
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f>raw!A125</f>
-        <v>repeat</v>
+        <v>initi</v>
       </c>
       <c r="B125">
         <f>raw!B125</f>
@@ -3127,7 +3133,7 @@
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f>raw!A126</f>
-        <v>test</v>
+        <v>path</v>
       </c>
       <c r="B126">
         <f>raw!B126</f>
@@ -3141,7 +3147,7 @@
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f>raw!A127</f>
-        <v>factori</v>
+        <v>comparison</v>
       </c>
       <c r="B127">
         <f>raw!B127</f>
@@ -3155,7 +3161,7 @@
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f>raw!A128</f>
-        <v>old</v>
+        <v>nearest</v>
       </c>
       <c r="B128">
         <f>raw!B128</f>
@@ -3169,7 +3175,7 @@
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f>raw!A129</f>
-        <v>initi</v>
+        <v>invalid</v>
       </c>
       <c r="B129">
         <f>raw!B129</f>
@@ -3183,7 +3189,7 @@
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
         <f>raw!A130</f>
-        <v>remain</v>
+        <v>repeat</v>
       </c>
       <c r="B130">
         <f>raw!B130</f>
@@ -3197,7 +3203,7 @@
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
         <f>raw!A131</f>
-        <v>invalid</v>
+        <v>boolean</v>
       </c>
       <c r="B131">
         <f>raw!B131</f>
@@ -3211,7 +3217,7 @@
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <f>raw!A132</f>
-        <v>nearest</v>
+        <v>lowest</v>
       </c>
       <c r="B132">
         <f>raw!B132</f>
@@ -3225,7 +3231,7 @@
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f>raw!A133</f>
-        <v>pos</v>
+        <v>percentag</v>
       </c>
       <c r="B133">
         <f>raw!B133</f>
@@ -3239,7 +3245,7 @@
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f>raw!A134</f>
-        <v>boolean</v>
+        <v>space</v>
       </c>
       <c r="B134">
         <f>raw!B134</f>
@@ -3253,7 +3259,7 @@
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f>raw!A135</f>
-        <v>comma</v>
+        <v>pass</v>
       </c>
       <c r="B135">
         <f>raw!B135</f>
@@ -3281,7 +3287,7 @@
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f>raw!A137</f>
-        <v>smallest</v>
+        <v>caught</v>
       </c>
       <c r="B137">
         <f>raw!B137</f>
@@ -3295,7 +3301,7 @@
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f>raw!A138</f>
-        <v>reformat</v>
+        <v>failur</v>
       </c>
       <c r="B138">
         <f>raw!B138</f>
@@ -3309,7 +3315,7 @@
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f>raw!A139</f>
-        <v>object</v>
+        <v>ioe</v>
       </c>
       <c r="B139">
         <f>raw!B139</f>
@@ -3323,7 +3329,7 @@
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f>raw!A140</f>
-        <v>loader</v>
+        <v>token</v>
       </c>
       <c r="B140">
         <f>raw!B140</f>
@@ -3337,7 +3343,7 @@
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f>raw!A141</f>
-        <v>uniqu</v>
+        <v>sorter</v>
       </c>
       <c r="B141">
         <f>raw!B141</f>
@@ -3351,7 +3357,7 @@
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f>raw!A142</f>
-        <v>token</v>
+        <v>comma</v>
       </c>
       <c r="B142">
         <f>raw!B142</f>
@@ -3365,7 +3371,7 @@
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f>raw!A143</f>
-        <v>rounder</v>
+        <v>load</v>
       </c>
       <c r="B143">
         <f>raw!B143</f>
@@ -3379,7 +3385,7 @@
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f>raw!A144</f>
-        <v>sequenc</v>
+        <v>smallest</v>
       </c>
       <c r="B144">
         <f>raw!B144</f>
@@ -3393,7 +3399,7 @@
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f>raw!A145</f>
-        <v>method</v>
+        <v>summari</v>
       </c>
       <c r="B145">
         <f>raw!B145</f>
@@ -3407,7 +3413,7 @@
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f>raw!A146</f>
-        <v>space</v>
+        <v>remain</v>
       </c>
       <c r="B146">
         <f>raw!B146</f>
@@ -3421,7 +3427,7 @@
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f>raw!A147</f>
-        <v>exist</v>
+        <v>clear</v>
       </c>
       <c r="B147">
         <f>raw!B147</f>
@@ -3435,7 +3441,7 @@
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f>raw!A148</f>
-        <v>build</v>
+        <v>old</v>
       </c>
       <c r="B148">
         <f>raw!B148</f>
@@ -3449,7 +3455,7 @@
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f>raw!A149</f>
-        <v>run</v>
+        <v>reformat</v>
       </c>
       <c r="B149">
         <f>raw!B149</f>
@@ -3463,7 +3469,7 @@
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f>raw!A150</f>
-        <v>previous</v>
+        <v>scan</v>
       </c>
       <c r="B150">
         <f>raw!B150</f>
@@ -3477,7 +3483,7 @@
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f>raw!A151</f>
-        <v>switch</v>
+        <v>run</v>
       </c>
       <c r="B151">
         <f>raw!B151</f>
@@ -3491,7 +3497,7 @@
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f>raw!A152</f>
-        <v>percentag</v>
+        <v>sourc</v>
       </c>
       <c r="B152">
         <f>raw!B152</f>
@@ -3505,7 +3511,7 @@
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f>raw!A153</f>
-        <v>revers</v>
+        <v>factori</v>
       </c>
       <c r="B153">
         <f>raw!B153</f>
@@ -3519,7 +3525,7 @@
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f>raw!A154</f>
-        <v>comput</v>
+        <v>retriev</v>
       </c>
       <c r="B154">
         <f>raw!B154</f>
@@ -3533,7 +3539,7 @@
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f>raw!A155</f>
-        <v>load</v>
+        <v>sequenc</v>
       </c>
       <c r="B155">
         <f>raw!B155</f>
@@ -3547,7 +3553,7 @@
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f>raw!A156</f>
-        <v>pass</v>
+        <v>pos</v>
       </c>
       <c r="B156">
         <f>raw!B156</f>
@@ -3561,7 +3567,7 @@
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f>raw!A157</f>
-        <v>retriev</v>
+        <v>rounder</v>
       </c>
       <c r="B157">
         <f>raw!B157</f>
@@ -3575,7 +3581,7 @@
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <f>raw!A158</f>
-        <v>failur</v>
+        <v>revers</v>
       </c>
       <c r="B158">
         <f>raw!B158</f>
@@ -3589,7 +3595,7 @@
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f>raw!A159</f>
-        <v>lowest</v>
+        <v>comput</v>
       </c>
       <c r="B159">
         <f>raw!B159</f>
@@ -3603,35 +3609,35 @@
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f>raw!A160</f>
-        <v>pointer</v>
+        <v>checker</v>
       </c>
       <c r="B160">
         <f>raw!B160</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" s="1">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f>raw!A161</f>
-        <v>comparison</v>
+        <v>printer</v>
       </c>
       <c r="B161">
         <f>raw!B161</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" s="1">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162">
+      <c r="A162" t="str">
         <f>raw!A162</f>
-        <v>0</v>
+        <v>point</v>
       </c>
       <c r="B162">
         <f>raw!B162</f>
@@ -3643,9 +3649,9 @@
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163">
+      <c r="A163" t="str">
         <f>raw!A163</f>
-        <v>0</v>
+        <v>loader</v>
       </c>
       <c r="B163">
         <f>raw!B163</f>
@@ -5581,17 +5587,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B161"/>
+  <dimension ref="A1:B163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="F184" sqref="F184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>20</v>
@@ -5599,7 +5605,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -5607,7 +5613,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -5615,7 +5621,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -5623,7 +5629,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>20</v>
@@ -5631,7 +5637,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>20</v>
@@ -5639,7 +5645,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>20</v>
@@ -5647,7 +5653,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -5655,7 +5661,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>20</v>
@@ -5663,7 +5669,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>20</v>
@@ -5671,7 +5677,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -5679,7 +5685,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -5695,7 +5701,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B14">
         <v>20</v>
@@ -5703,7 +5709,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <v>20</v>
@@ -5711,7 +5717,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>20</v>
@@ -5719,7 +5725,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>20</v>
@@ -5727,7 +5733,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B18">
         <v>20</v>
@@ -5735,7 +5741,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -5743,7 +5749,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -5751,7 +5757,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>19</v>
@@ -5759,7 +5765,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>19</v>
@@ -5767,7 +5773,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>18</v>
@@ -5775,7 +5781,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>18</v>
@@ -5783,7 +5789,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>17</v>
@@ -5791,7 +5797,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>17</v>
@@ -5802,12 +5808,12 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>16</v>
@@ -5815,15 +5821,15 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>15</v>
@@ -5831,7 +5837,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>15</v>
@@ -5839,7 +5845,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>15</v>
@@ -5847,23 +5853,23 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>14</v>
@@ -5879,7 +5885,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B37">
         <v>14</v>
@@ -5887,15 +5893,15 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B38">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B39">
         <v>13</v>
@@ -5903,7 +5909,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>13</v>
@@ -5911,7 +5917,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>13</v>
@@ -5919,7 +5925,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>12</v>
@@ -5927,7 +5933,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>12</v>
@@ -5935,7 +5941,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>11</v>
@@ -5943,7 +5949,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>11</v>
@@ -5951,7 +5957,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>10</v>
@@ -5959,7 +5965,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>10</v>
@@ -5967,7 +5973,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48">
         <v>10</v>
@@ -5975,7 +5981,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>10</v>
@@ -5999,7 +6005,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>9</v>
@@ -6007,15 +6013,15 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B53">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>8</v>
@@ -6023,7 +6029,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>8</v>
@@ -6031,23 +6037,23 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B56">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B58">
         <v>5</v>
@@ -6055,7 +6061,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B59">
         <v>5</v>
@@ -6071,7 +6077,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B61">
         <v>5</v>
@@ -6079,7 +6085,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B62">
         <v>5</v>
@@ -6087,7 +6093,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -6095,7 +6101,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B64">
         <v>5</v>
@@ -6103,7 +6109,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -6111,7 +6117,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -6119,7 +6125,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B67">
         <v>5</v>
@@ -6127,23 +6133,23 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B68">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B70">
         <v>4</v>
@@ -6151,7 +6157,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B71">
         <v>4</v>
@@ -6159,7 +6165,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B72">
         <v>4</v>
@@ -6167,7 +6173,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B73">
         <v>4</v>
@@ -6175,7 +6181,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B74">
         <v>4</v>
@@ -6183,7 +6189,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>4</v>
@@ -6191,7 +6197,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B76">
         <v>4</v>
@@ -6199,7 +6205,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -6207,7 +6213,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B78">
         <v>4</v>
@@ -6215,7 +6221,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B79">
         <v>4</v>
@@ -6223,7 +6229,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B80">
         <v>4</v>
@@ -6231,7 +6237,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B81">
         <v>4</v>
@@ -6239,7 +6245,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -6247,23 +6253,23 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
         <v>3</v>
@@ -6271,7 +6277,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B86">
         <v>3</v>
@@ -6279,7 +6285,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B87">
         <v>3</v>
@@ -6287,7 +6293,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B88">
         <v>3</v>
@@ -6295,7 +6301,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B89">
         <v>3</v>
@@ -6303,7 +6309,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B90">
         <v>3</v>
@@ -6311,7 +6317,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B91">
         <v>3</v>
@@ -6319,7 +6325,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92">
         <v>3</v>
@@ -6327,7 +6333,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B93">
         <v>3</v>
@@ -6335,7 +6341,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B94">
         <v>3</v>
@@ -6343,7 +6349,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="B95">
         <v>3</v>
@@ -6351,15 +6357,15 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="B96">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B97">
         <v>2</v>
@@ -6367,7 +6373,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B98">
         <v>2</v>
@@ -6375,7 +6381,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>2</v>
@@ -6383,7 +6389,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B100">
         <v>2</v>
@@ -6391,7 +6397,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -6399,7 +6405,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -6415,7 +6421,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>2</v>
@@ -6423,7 +6429,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -6431,7 +6437,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -6439,7 +6445,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -6447,7 +6453,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -6455,7 +6461,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -6463,7 +6469,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -6471,7 +6477,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -6479,7 +6485,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B112">
         <v>2</v>
@@ -6487,7 +6493,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B113">
         <v>2</v>
@@ -6495,7 +6501,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -6503,7 +6509,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B115">
         <v>2</v>
@@ -6511,23 +6517,23 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -6535,7 +6541,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -6543,7 +6549,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -6551,7 +6557,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -6559,7 +6565,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -6567,7 +6573,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -6575,7 +6581,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -6583,7 +6589,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -6591,7 +6597,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -6599,7 +6605,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -6607,7 +6613,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -6615,7 +6621,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -6623,7 +6629,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -6631,7 +6637,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -6639,7 +6645,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -6647,7 +6653,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -6655,7 +6661,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -6663,7 +6669,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -6671,7 +6677,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -6679,7 +6685,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -6687,7 +6693,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -6695,7 +6701,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -6703,7 +6709,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -6711,7 +6717,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -6719,7 +6725,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -6727,7 +6733,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -6735,7 +6741,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -6743,7 +6749,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -6751,7 +6757,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -6759,7 +6765,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -6767,7 +6773,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -6775,7 +6781,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -6783,7 +6789,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -6791,7 +6797,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -6799,7 +6805,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -6807,7 +6813,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -6815,7 +6821,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -6823,7 +6829,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -6831,7 +6837,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -6839,7 +6845,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -6847,7 +6853,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -6855,7 +6861,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -6866,15 +6872,31 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>118</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
